--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>Task</t>
   </si>
@@ -207,12 +207,6 @@
     <t>should_return_201_when_post_comfirmation_success</t>
   </si>
   <si>
-    <t>should_return_201_when_patch_product_success</t>
-  </si>
-  <si>
-    <t>should_return_400_when_patch_product_fail</t>
-  </si>
-  <si>
     <t>should_return_201_when_patch_store_success</t>
   </si>
   <si>
@@ -240,12 +234,6 @@
     <t>should_return_400_when_post_user_fail</t>
   </si>
   <si>
-    <t>should_return_201_when_patch_user_success</t>
-  </si>
-  <si>
-    <t>should_return_400_when_patch_user_fail</t>
-  </si>
-  <si>
     <t>should_return_200_when_get_user_success</t>
   </si>
   <si>
@@ -271,6 +259,24 @@
   </si>
   <si>
     <t>launch docker and build images</t>
+  </si>
+  <si>
+    <t>should_return_201_when_put_product_success</t>
+  </si>
+  <si>
+    <t>should_return_400_when_put_product_fail</t>
+  </si>
+  <si>
+    <t>should_return_201_when_put_user_success</t>
+  </si>
+  <si>
+    <t>should_return_400_when_put_user_fail</t>
+  </si>
+  <si>
+    <t>should_return_201_when_put_cart_success</t>
+  </si>
+  <si>
+    <t>should_return_400_when_put_cart_fail</t>
   </si>
 </sst>
 </file>
@@ -345,12 +351,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -654,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -682,8 +691,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>70</v>
+      <c r="A2" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -691,9 +700,12 @@
       <c r="C2" s="1">
         <v>5</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -702,7 +714,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -711,7 +723,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -720,7 +732,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -729,7 +741,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,7 +750,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -747,7 +759,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,7 +768,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -765,7 +777,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -774,7 +786,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -783,7 +795,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -792,7 +804,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -801,7 +813,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -810,7 +822,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -819,7 +831,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -828,7 +840,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1010,8 +1022,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>70</v>
+      <c r="A9" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
@@ -1021,7 +1033,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1030,7 +1042,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1039,7 +1051,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1048,7 +1060,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1057,7 +1069,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1066,7 +1078,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1075,7 +1087,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1084,18 +1096,18 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1123,7 +1135,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1150,8 +1162,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>70</v>
+      <c r="A2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1163,7 +1175,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1172,7 +1184,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1181,7 +1193,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1190,7 +1202,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1199,7 +1211,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1208,18 +1220,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1246,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1274,8 +1286,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>70</v>
+      <c r="A2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1285,7 +1297,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1294,7 +1306,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1303,7 +1315,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1312,7 +1324,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1377,8 +1389,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>70</v>
+      <c r="A3" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -1388,7 +1400,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1397,7 +1409,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1406,7 +1418,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1415,7 +1427,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1424,7 +1436,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1433,7 +1445,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1442,7 +1454,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1451,7 +1463,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1460,7 +1472,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1469,7 +1481,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1490,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1505,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1535,8 +1547,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>70</v>
+      <c r="A2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1546,62 +1558,80 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
-        <f>SUM(C2:C7)</f>
-        <v>39</v>
+      <c r="C10" s="1">
+        <f>SUM(C2:C9)</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1612,7 +1642,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1639,8 +1669,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>70</v>
+      <c r="A2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1650,54 +1680,54 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1752,7 +1782,7 @@
     </row>
     <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -1760,7 +1790,7 @@
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
@@ -1768,7 +1798,7 @@
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -1776,7 +1806,7 @@
     </row>
     <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -1784,7 +1814,7 @@
     </row>
     <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -1792,7 +1822,7 @@
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>Task</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>should_return_400_when_put_cart_fail</t>
+  </si>
+  <si>
+    <t>解决准备好模版中的bug</t>
   </si>
 </sst>
 </file>
@@ -332,8 +335,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -369,7 +374,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -378,6 +383,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -386,6 +392,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,7 +671,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -712,6 +719,12 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
+      <c r="D3" s="1">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -862,6 +875,7 @@
     <mergeCell ref="A2:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>Task</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>解决准备好模版中的bug</t>
+  </si>
+  <si>
+    <t>order嵌套item，mabatis批量插入数据库</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -679,7 +682,7 @@
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="60" style="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -733,6 +736,12 @@
       </c>
       <c r="C4" s="1">
         <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -917,7 +926,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -950,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:A1048576"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -978,6 +987,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -988,6 +1000,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -996,6 +1009,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1004,6 +1018,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1012,6 +1027,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1020,6 +1036,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1028,6 +1045,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1036,9 +1054,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1138,7 +1154,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A2:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1367,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A1048576"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>Task</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>order嵌套item，mabatis批量插入数据库</t>
+  </si>
+  <si>
+    <t>引入MockServer</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -751,6 +754,12 @@
       </c>
       <c r="C5" s="1">
         <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -111,15 +111,6 @@
     <t>should_return_201_when_post_inventory_unloading_success</t>
   </si>
   <si>
-    <t>should_return_200_when_get_inventory_uploadings_success</t>
-  </si>
-  <si>
-    <t>should_return_200_when_get_inventory_uploading_success</t>
-  </si>
-  <si>
-    <t>should_return_404_when_get_inventory_uploading_success</t>
-  </si>
-  <si>
     <t>should_return_201_when_post_inventory_success</t>
   </si>
   <si>
@@ -286,6 +277,15 @@
   </si>
   <si>
     <t>引入MockServer</t>
+  </si>
+  <si>
+    <t>should_return_200_when_get_inventory_unloadings_success</t>
+  </si>
+  <si>
+    <t>should_return_200_when_get_inventory_unloading_success</t>
+  </si>
+  <si>
+    <t>should_return_404_when_get_inventory_unloading_success</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -729,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -744,7 +744,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -769,6 +769,9 @@
       </c>
       <c r="C6" s="1">
         <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -969,7 +972,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -997,7 +1000,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -1020,7 +1023,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1029,7 +1032,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1038,7 +1041,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1047,7 +1050,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1056,7 +1059,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1065,7 +1068,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1074,7 +1077,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -1083,7 +1086,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1092,7 +1095,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1101,7 +1104,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1110,7 +1113,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -1119,7 +1122,7 @@
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
@@ -1128,7 +1131,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1137,7 +1140,7 @@
     <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -1146,7 +1149,7 @@
     <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1202,7 +1205,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1216,7 +1219,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1225,7 +1228,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1234,7 +1237,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1243,7 +1246,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1252,7 +1255,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1261,7 +1264,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1270,7 +1273,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1326,7 +1329,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1338,7 +1341,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1347,7 +1350,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>8</v>
@@ -1356,7 +1359,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1365,7 +1368,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1429,10 +1432,10 @@
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1441,7 +1444,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1450,7 +1453,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1459,7 +1462,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1468,7 +1471,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1477,7 +1480,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1486,7 +1489,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -1495,7 +1498,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1504,7 +1507,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1513,7 +1516,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1599,7 +1602,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1608,7 +1611,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1617,7 +1620,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1626,7 +1629,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1635,7 +1638,7 @@
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -1644,7 +1647,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -1653,7 +1656,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1721,7 +1724,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1730,7 +1733,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1739,7 +1742,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1748,7 +1751,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1757,7 +1760,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1766,7 +1769,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1821,7 +1824,7 @@
     </row>
     <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -1845,7 +1848,7 @@
     </row>
     <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -1853,7 +1856,7 @@
     </row>
     <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -1861,7 +1864,7 @@
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Task</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>should_return_404_when_get_inventory_unloading_success</t>
+  </si>
+  <si>
+    <t>Map&lt;String,List&lt;Map&gt;&gt;转json</t>
+  </si>
+  <si>
+    <t>调用其他服务失败情况</t>
   </si>
 </sst>
 </file>
@@ -341,8 +347,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,7 +388,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -390,6 +398,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -399,6 +408,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,7 +687,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -773,6 +783,9 @@
       <c r="D6" s="1">
         <v>12</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
@@ -781,6 +794,12 @@
       </c>
       <c r="C7" s="1">
         <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -347,8 +347,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,7 +390,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -399,6 +401,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -409,6 +412,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -809,6 +813,9 @@
       </c>
       <c r="C8" s="1">
         <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -347,8 +347,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -390,7 +392,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -402,6 +404,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -413,6 +416,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -826,6 +830,9 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -347,8 +347,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -392,7 +394,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -405,6 +407,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -417,6 +420,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -694,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -841,6 +845,9 @@
       </c>
       <c r="C10" s="1">
         <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>Task</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>调用其他服务失败情况</t>
+  </si>
+  <si>
+    <t>Contest问题</t>
   </si>
 </sst>
 </file>
@@ -347,8 +350,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -394,7 +399,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -408,6 +413,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -421,6 +427,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -698,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -858,6 +865,12 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -867,6 +880,9 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
@@ -904,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -913,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -922,13 +938,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C2:C18)</f>
         <v>107</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM(D2:D18)</f>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -350,8 +350,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -399,7 +401,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -414,6 +416,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -428,6 +431,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -892,6 +896,9 @@
       <c r="C13" s="1">
         <v>3</v>
       </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -948,7 +955,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -350,8 +350,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -401,7 +403,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -417,6 +419,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -432,6 +435,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -710,7 +714,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -908,6 +912,9 @@
       <c r="C14" s="1">
         <v>5</v>
       </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -955,7 +962,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -75,9 +75,6 @@
     <t>should_return_400_when_post_payment_fail</t>
   </si>
   <si>
-    <t>shoulr_return_200_when_get_payment_success</t>
-  </si>
-  <si>
     <t>should_return_200_when_get_logistic_success</t>
   </si>
   <si>
@@ -294,7 +291,10 @@
     <t>调用其他服务失败情况</t>
   </si>
   <si>
-    <t>Contest问题</t>
+    <t>should_return_200_when_get_payment_success</t>
+  </si>
+  <si>
+    <t>Context问题</t>
   </si>
 </sst>
 </file>
@@ -350,8 +350,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -403,7 +407,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -420,6 +424,8 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -436,6 +442,8 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -742,10 +750,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -766,13 +774,13 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -781,13 +789,13 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -796,13 +804,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -811,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -826,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -883,7 +891,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -907,7 +915,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -919,16 +927,19 @@
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -937,7 +948,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -946,7 +957,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -954,7 +965,7 @@
     </row>
     <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C2:C18)</f>
@@ -962,7 +973,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1074,10 +1085,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1088,7 +1099,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1097,7 +1108,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1106,7 +1117,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1115,7 +1126,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1124,7 +1135,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1133,7 +1144,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1142,7 +1153,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1151,7 +1162,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -1160,7 +1171,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1169,7 +1180,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1178,7 +1189,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1187,7 +1198,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -1196,7 +1207,7 @@
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
@@ -1205,7 +1216,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1214,7 +1225,7 @@
     <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -1223,7 +1234,7 @@
     <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1231,7 +1242,7 @@
     </row>
     <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C2:C18)</f>
@@ -1279,10 +1290,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1293,7 +1304,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1302,7 +1313,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1311,7 +1322,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1320,7 +1331,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1329,7 +1340,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1338,7 +1349,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1347,7 +1358,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1355,7 +1366,7 @@
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C2:C9)</f>
@@ -1403,10 +1414,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1415,7 +1426,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1424,7 +1435,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <v>8</v>
@@ -1433,7 +1444,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1442,7 +1453,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1450,7 +1461,7 @@
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C2:C6)</f>
@@ -1498,7 +1509,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1506,10 +1517,10 @@
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1518,7 +1529,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1527,7 +1538,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1536,7 +1547,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1545,7 +1556,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1554,7 +1565,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1563,7 +1574,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -1572,7 +1583,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1581,7 +1592,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1590,7 +1601,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1599,7 +1610,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1608,7 +1619,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -1616,7 +1627,7 @@
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <f>SUM(C2:C14)</f>
@@ -1664,10 +1675,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1676,7 +1687,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1685,7 +1696,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1694,7 +1705,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1703,7 +1714,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1712,7 +1723,7 @@
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -1721,7 +1732,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -1730,7 +1741,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1738,7 +1749,7 @@
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C2:C9)</f>
@@ -1786,10 +1797,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1798,7 +1809,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1807,7 +1818,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1816,7 +1827,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1825,7 +1836,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1834,7 +1845,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1843,7 +1854,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1851,7 +1862,7 @@
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f>SUM(C2:C8)</f>
@@ -1898,7 +1909,7 @@
     </row>
     <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -1906,7 +1917,7 @@
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
@@ -1914,7 +1925,7 @@
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -1922,7 +1933,7 @@
     </row>
     <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -1930,7 +1941,7 @@
     </row>
     <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -1938,7 +1949,7 @@
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
@@ -1946,7 +1957,7 @@
     </row>
     <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>Task</t>
   </si>
@@ -78,9 +78,6 @@
     <t>should_return_200_when_get_logistic_success</t>
   </si>
   <si>
-    <t>should_return_200_when_post_comfirmation_success</t>
-  </si>
-  <si>
     <t>should_return_400_when_post_comfirmation_fail</t>
   </si>
   <si>
@@ -295,6 +292,15 @@
   </si>
   <si>
     <t>Context问题</t>
+  </si>
+  <si>
+    <t>should_return_201_when_post_confirmation_success</t>
+  </si>
+  <si>
+    <t>should_return_400_when_post_confirmation_fail</t>
+  </si>
+  <si>
+    <t>should_return_200_when_get_confirmation_success</t>
   </si>
 </sst>
 </file>
@@ -350,8 +356,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -407,7 +415,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -426,6 +434,7 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -444,6 +453,7 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,10 +760,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -774,13 +784,13 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -789,13 +799,13 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -804,13 +814,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -819,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -834,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -885,13 +895,13 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -915,7 +925,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -939,16 +949,19 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -957,7 +970,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -965,7 +978,7 @@
     </row>
     <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C2:C18)</f>
@@ -973,7 +986,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1085,10 +1098,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1099,7 +1112,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1108,7 +1121,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1117,7 +1130,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1126,7 +1139,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1135,7 +1148,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1144,7 +1157,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1153,7 +1166,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1162,7 +1175,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -1171,7 +1184,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1180,7 +1193,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1189,7 +1202,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1198,7 +1211,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -1207,7 +1220,7 @@
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
@@ -1216,7 +1229,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1225,7 +1238,7 @@
     <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -1234,7 +1247,7 @@
     <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1242,7 +1255,7 @@
     </row>
     <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C2:C18)</f>
@@ -1290,10 +1303,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1304,7 +1317,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1313,7 +1326,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1322,7 +1335,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1331,7 +1344,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1340,7 +1353,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1349,7 +1362,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1358,7 +1371,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1366,7 +1379,7 @@
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C2:C9)</f>
@@ -1414,10 +1427,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1426,7 +1439,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1435,7 +1448,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>8</v>
@@ -1444,7 +1457,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1453,7 +1466,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1461,7 +1474,7 @@
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(C2:C6)</f>
@@ -1509,7 +1522,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1517,10 +1530,10 @@
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1529,7 +1542,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1538,7 +1551,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1547,7 +1560,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1556,7 +1569,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1565,7 +1578,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1574,7 +1587,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -1583,7 +1596,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1592,7 +1605,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1601,7 +1614,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1610,7 +1623,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1619,7 +1632,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -1627,7 +1640,7 @@
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <f>SUM(C2:C14)</f>
@@ -1675,10 +1688,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1687,7 +1700,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1696,7 +1709,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1705,7 +1718,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1714,7 +1727,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1723,7 +1736,7 @@
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -1732,7 +1745,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -1741,7 +1754,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1749,7 +1762,7 @@
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C2:C9)</f>
@@ -1797,10 +1810,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1809,7 +1822,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1818,7 +1831,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1827,7 +1840,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1836,7 +1849,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1845,7 +1858,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1854,7 +1867,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1862,7 +1875,7 @@
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <f>SUM(C2:C8)</f>
@@ -1909,7 +1922,7 @@
     </row>
     <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -1917,7 +1930,7 @@
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
@@ -1925,7 +1938,7 @@
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -1933,7 +1946,7 @@
     </row>
     <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -1941,7 +1954,7 @@
     </row>
     <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -1949,7 +1962,7 @@
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
@@ -1957,7 +1970,7 @@
     </row>
     <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -356,8 +356,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -415,7 +417,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -435,6 +437,7 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -454,6 +457,7 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,7 +736,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -966,6 +970,9 @@
       <c r="C17" s="1">
         <v>3</v>
       </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -986,7 +993,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -356,8 +356,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -417,7 +419,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -438,6 +440,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -458,6 +461,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -982,6 +986,9 @@
       <c r="C18" s="1">
         <v>5</v>
       </c>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
@@ -993,7 +1000,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1325,9 @@
       <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1415,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -356,8 +356,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -419,7 +421,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -441,6 +443,7 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -462,6 +465,7 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1289,7 +1293,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1338,6 +1342,9 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
+      <c r="D3" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -1407,6 +1414,7 @@
     <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -356,8 +356,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,7 +423,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -444,6 +446,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -466,6 +469,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1293,7 +1297,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1352,6 +1356,9 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
     </row>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -356,8 +356,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -423,7 +425,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -447,6 +449,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -470,6 +473,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1297,7 +1301,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1369,6 +1373,9 @@
       </c>
       <c r="C5" s="1">
         <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -356,8 +356,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -425,7 +427,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -450,6 +452,7 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -474,6 +477,7 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1301,7 +1305,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1385,6 +1389,9 @@
       </c>
       <c r="C6" s="1">
         <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -356,8 +356,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -427,7 +429,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -453,6 +455,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -478,6 +481,7 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1305,7 +1309,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1400,6 +1404,9 @@
         <v>35</v>
       </c>
       <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
     </row>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -356,8 +356,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -429,7 +431,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -456,6 +458,7 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -482,6 +485,7 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1309,7 +1313,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1417,6 +1421,9 @@
       </c>
       <c r="C8" s="1">
         <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t>Task</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>should_return_201_when_put_product_success</t>
-  </si>
-  <si>
-    <t>should_return_400_when_put_product_fail</t>
   </si>
   <si>
     <t>should_return_201_when_put_user_success</t>
@@ -356,8 +353,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,7 +430,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -459,6 +458,7 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -486,6 +486,7 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -816,7 +817,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -831,7 +832,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -846,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -861,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -876,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -927,7 +928,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -957,7 +958,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -981,7 +982,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -993,7 +994,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1005,7 +1006,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1168,7 +1169,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1177,7 +1178,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1186,7 +1187,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1310,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1427,26 +1428,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <f>SUM(C2:C9)</f>
-        <v>50</v>
+        <f>SUM(C2:C8)</f>
+        <v>47</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM(D2:D8)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1804,7 +1800,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -1813,7 +1809,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1899,7 +1895,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1908,7 +1904,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1582,6 +1582,9 @@
       <c r="C2" s="1">
         <v>5</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1700,6 +1703,10 @@
       <c r="C15" s="1">
         <f>SUM(C2:C14)</f>
         <v>89</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM(D2:D14)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -353,8 +353,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -430,7 +432,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -459,6 +461,7 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -487,6 +490,7 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -764,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1453,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1490,6 +1494,9 @@
       <c r="C2" s="1">
         <v>5</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
@@ -1498,6 +1505,9 @@
       </c>
       <c r="C3" s="1">
         <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,6 +1551,7 @@
     <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1548,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1583,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,7 +1717,7 @@
       </c>
       <c r="D15" s="1">
         <f>SUM(D2:D14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -25,7 +25,7 @@
     <sheet name="RegisterService" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PriceService!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PriceService!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -156,9 +156,6 @@
     <t>should_return_400_when_post_price_success</t>
   </si>
   <si>
-    <t>should_call_product_service_when_create_price</t>
-  </si>
-  <si>
     <t>should_return_200_when_get_price</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>should_return_200_when_get_confirmation_success</t>
+  </si>
+  <si>
+    <t>％3F路经不识别问题</t>
   </si>
 </sst>
 </file>
@@ -353,8 +353,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -432,7 +438,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -462,6 +468,9 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -491,6 +500,9 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,7 +809,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -821,7 +833,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -836,7 +848,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -851,7 +863,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -866,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -881,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -932,7 +944,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -962,7 +974,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -986,7 +998,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -998,7 +1010,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1010,7 +1022,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1141,7 +1153,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1173,7 +1185,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1182,7 +1194,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1191,7 +1203,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1281,7 +1293,7 @@
     <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -1290,7 +1302,7 @@
     <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1346,7 +1358,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1422,7 +1434,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1455,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1498,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1513,42 +1525,46 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <f>SUM(C2:C6)</f>
-        <v>34</v>
+        <f>SUM(C2:C5)</f>
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM(D2:D5)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1599,10 +1615,10 @@
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1611,7 +1627,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1620,7 +1636,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1629,7 +1645,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1638,7 +1654,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1647,7 +1663,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1656,7 +1672,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -1665,7 +1681,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1674,7 +1690,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1683,7 +1699,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1761,7 +1777,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1773,7 +1789,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1782,7 +1798,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1791,7 +1807,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1800,7 +1816,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1809,7 +1825,7 @@
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -1818,7 +1834,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -1827,7 +1843,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1883,7 +1899,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1895,7 +1911,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1904,7 +1920,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1913,7 +1929,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1922,7 +1938,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1931,7 +1947,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1940,7 +1956,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1995,7 +2011,7 @@
     </row>
     <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -2003,7 +2019,7 @@
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
@@ -2011,7 +2027,7 @@
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -2019,7 +2035,7 @@
     </row>
     <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -2027,7 +2043,7 @@
     </row>
     <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -2035,7 +2051,7 @@
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1748,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1784,6 +1784,9 @@
       </c>
       <c r="C2" s="1">
         <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -353,8 +353,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -438,7 +440,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -471,6 +473,7 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -503,6 +506,7 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1749,7 +1753,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1797,6 +1801,9 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -1866,6 +1873,7 @@
     <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1812,6 +1812,9 @@
       </c>
       <c r="C4" s="1">
         <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1824,6 +1824,9 @@
       </c>
       <c r="C5" s="1">
         <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -353,8 +353,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -440,7 +442,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -474,6 +476,7 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -507,6 +510,7 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1837,6 +1841,9 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -353,8 +353,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -442,7 +444,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -477,6 +479,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -511,6 +514,7 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1757,7 +1761,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1852,6 +1856,9 @@
       </c>
       <c r="C7" s="3">
         <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -353,8 +353,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -444,7 +446,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -480,6 +482,7 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -515,6 +518,7 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1761,7 +1765,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1868,6 +1872,9 @@
       </c>
       <c r="C8" s="3">
         <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -353,8 +353,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,7 +448,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -483,6 +485,7 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -519,6 +522,7 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1765,7 +1769,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1885,6 +1889,9 @@
       <c r="C9" s="1">
         <v>3</v>
       </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -1893,6 +1900,10 @@
       <c r="C10" s="1">
         <f>SUM(C2:C9)</f>
         <v>52</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(D2:D9)</f>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="FunctionTest" sheetId="11" r:id="rId9"/>
     <sheet name="ConfigService" sheetId="10" r:id="rId10"/>
     <sheet name="RegisterService" sheetId="9" r:id="rId11"/>
+    <sheet name="total" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PriceService!$A$1:$E$6</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -298,6 +299,39 @@
   </si>
   <si>
     <t>％3F路经不识别问题</t>
+  </si>
+  <si>
+    <t>OrderService</t>
+  </si>
+  <si>
+    <t>InventoryService</t>
+  </si>
+  <si>
+    <t>ProductService</t>
+  </si>
+  <si>
+    <t>PriceService</t>
+  </si>
+  <si>
+    <t>RefundService</t>
+  </si>
+  <si>
+    <t>CartService</t>
+  </si>
+  <si>
+    <t>UserService</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>第一个服务生疏</t>
   </si>
 </sst>
 </file>
@@ -430,7 +464,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,6 +473,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -800,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -814,6 +854,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +871,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -842,7 +885,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,7 +900,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -872,7 +915,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -887,7 +930,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -902,7 +945,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,7 +960,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,7 +972,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -953,7 +996,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,7 +1011,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -980,7 +1023,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,7 +1035,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>80</v>
       </c>
@@ -1004,7 +1047,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1016,7 +1059,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
@@ -1028,7 +1071,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
@@ -1040,7 +1083,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
@@ -1140,17 +1183,179 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="24" style="4"/>
+    <col min="4" max="4" width="60" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="24" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="str">
+        <f>OrderService!A1</f>
+        <v>OrderService</v>
+      </c>
+      <c r="B2" s="4">
+        <f>OrderService!C19</f>
+        <v>107</v>
+      </c>
+      <c r="C2" s="4">
+        <f>OrderService!D19</f>
+        <v>190</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="str">
+        <f>InventoryService!A1</f>
+        <v>InventoryService</v>
+      </c>
+      <c r="B3" s="4">
+        <f>InventoryService!C19</f>
+        <v>111</v>
+      </c>
+      <c r="C3" s="4">
+        <f>InventoryService!D19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="str">
+        <f>ProductService!A1</f>
+        <v>ProductService</v>
+      </c>
+      <c r="B4" s="4">
+        <f>ProductService!C9</f>
+        <v>47</v>
+      </c>
+      <c r="C4" s="4">
+        <f>ProductService!D9</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="str">
+        <f>PriceService!A1</f>
+        <v>PriceService</v>
+      </c>
+      <c r="B5" s="4">
+        <f>PriceService!C6</f>
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
+        <f>PriceService!D6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="str">
+        <f>RefundService!A1</f>
+        <v>RefundService</v>
+      </c>
+      <c r="B6" s="4">
+        <f>RefundService!C15</f>
+        <v>89</v>
+      </c>
+      <c r="C6" s="4">
+        <f>RefundService!D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
+        <f>CartService!A1</f>
+        <v>CartService</v>
+      </c>
+      <c r="B7" s="4">
+        <f>CartService!C10</f>
+        <v>52</v>
+      </c>
+      <c r="C7" s="4">
+        <f>CartService!D10</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
+        <f>UserService!A1</f>
+        <v>UserService</v>
+      </c>
+      <c r="B8" s="4">
+        <f>UserService!C9</f>
+        <v>42</v>
+      </c>
+      <c r="C8" s="4">
+        <f>UserService!D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
+        <f>Docker!A1</f>
+        <v>Docker</v>
+      </c>
+      <c r="B9" s="4">
+        <f>Docker!C8</f>
+        <v>120</v>
+      </c>
+      <c r="C9" s="4">
+        <f>Docker!D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUM(B2:B9)</f>
+        <v>594</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM(C2:C9)</f>
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="60" style="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="1" customWidth="1"/>
@@ -1158,6 +1363,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1380,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1185,7 +1393,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1194,7 +1402,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +1411,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>75</v>
       </c>
@@ -1212,7 +1420,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
@@ -1221,7 +1429,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
@@ -1230,7 +1438,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1447,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1456,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1465,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1474,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1275,7 +1483,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1284,7 +1492,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1293,7 +1501,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1302,7 +1510,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1310,8 +1518,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1319,8 +1527,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1328,13 +1536,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C2:C18)</f>
         <v>111</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM(D2:D18)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1350,12 +1562,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="60" style="1"/>
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="1" customWidth="1"/>
@@ -1363,6 +1575,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1592,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1392,7 +1607,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1619,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1416,7 +1631,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1428,7 +1643,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1440,7 +1655,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1452,7 +1667,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
@@ -1490,7 +1705,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1503,6 +1718,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1735,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1531,7 +1749,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1761,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1555,7 +1773,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1596,12 +1814,12 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="60" style="1"/>
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="1" customWidth="1"/>
@@ -1609,6 +1827,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1623,6 +1844,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1634,9 +1858,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1645,7 +1867,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1654,7 +1876,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,7 +1885,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1894,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1681,7 +1903,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
@@ -1690,7 +1912,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1699,7 +1921,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
@@ -1708,7 +1930,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1717,7 +1939,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1726,7 +1948,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1957,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1758,7 +1980,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1768,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1782,6 +2004,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +2021,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1810,7 +2035,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1822,7 +2047,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1834,7 +2059,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
@@ -1846,7 +2071,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1858,7 +2083,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1870,7 +2095,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1882,7 +2107,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1920,7 +2145,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1933,6 +2158,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +2175,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1958,7 +2186,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
@@ -1967,7 +2195,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1976,7 +2204,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
@@ -1985,7 +2213,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
@@ -1994,7 +2222,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
@@ -2003,7 +2231,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2018,6 +2246,10 @@
       <c r="C9" s="1">
         <f>SUM(C2:C8)</f>
         <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM(D2:D8)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2030,92 +2262,109 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="60" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <f>SUM(B2:B7)</f>
+      <c r="C8" s="1">
+        <f>SUM(C2:C7)</f>
         <v>120</v>
       </c>
+      <c r="D8" s="1">
+        <f>SUM(D2:D7)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>Task</t>
   </si>
@@ -329,9 +329,6 @@
   </si>
   <si>
     <t>Service</t>
-  </si>
-  <si>
-    <t>第一个服务生疏</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1225,9 +1222,6 @@
         <f>OrderService!D19</f>
         <v>190</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
@@ -1240,7 +1234,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1337,7 +1331,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -1349,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1389,13 +1383,15 @@
       <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1404,7 +1400,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1413,7 +1409,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1422,7 +1418,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1431,7 +1427,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1440,7 +1436,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1449,7 +1445,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1458,61 +1454,61 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1521,19 +1517,19 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1546,7 +1542,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -384,8 +384,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -485,7 +489,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -523,6 +527,8 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -560,6 +566,8 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1234,7 +1242,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1331,7 +1339,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1352,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1396,6 +1404,9 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
+      <c r="D3" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
@@ -1405,6 +1416,9 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -1542,7 +1556,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1550,6 +1564,7 @@
     <mergeCell ref="A2:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -384,8 +384,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -489,7 +493,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -529,6 +533,8 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -568,6 +574,8 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1242,7 +1250,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1339,7 +1347,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1352,7 +1360,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1428,6 +1436,9 @@
       <c r="C5" s="1">
         <v>8</v>
       </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
@@ -1437,6 +1448,9 @@
       <c r="C6" s="1">
         <v>8</v>
       </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -1556,7 +1570,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -384,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -493,7 +495,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -535,6 +537,7 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -576,6 +579,7 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1250,7 +1254,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1347,7 +1351,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1364,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1460,6 +1464,9 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -1570,7 +1577,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -190,12 +190,6 @@
     <t>should_return_201_when_post_comfirmation_success</t>
   </si>
   <si>
-    <t>should_return_201_when_patch_store_success</t>
-  </si>
-  <si>
-    <t>should_return_400_when_patch_store_fail</t>
-  </si>
-  <si>
     <t>should_return_201_when_post_cart_success</t>
   </si>
   <si>
@@ -329,6 +323,12 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>should_return_201_when_put_store_success</t>
+  </si>
+  <si>
+    <t>should_return_400_when_put_store_fail</t>
   </si>
 </sst>
 </file>
@@ -384,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -495,7 +497,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -538,6 +540,7 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -580,6 +583,7 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -872,7 +876,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -889,7 +893,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -913,7 +917,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -928,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -943,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -973,7 +977,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1024,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,7 +1058,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1078,7 +1082,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1090,7 +1094,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1102,7 +1106,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1217,7 +1221,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1254,7 +1258,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1343,7 +1347,7 @@
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="4">
         <f>SUM(B2:B9)</f>
@@ -1351,7 +1355,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1368,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1382,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1395,7 +1399,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1471,16 +1475,19 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1507,7 +1514,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -1516,7 +1523,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1525,7 +1532,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1577,7 +1584,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1615,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1625,7 +1632,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1701,7 +1708,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1751,7 +1758,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1768,7 +1775,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1816,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1860,7 +1867,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1877,7 +1884,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -2037,7 +2044,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2054,7 +2061,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -2069,7 +2076,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2081,7 +2088,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -2093,7 +2100,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -2105,7 +2112,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -2117,7 +2124,7 @@
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -2129,7 +2136,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -2141,7 +2148,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2191,7 +2198,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2208,7 +2215,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -2220,7 +2227,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2229,7 +2236,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2238,7 +2245,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2247,7 +2254,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -2256,7 +2263,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -2265,7 +2272,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -2311,7 +2318,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2329,7 +2336,7 @@
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -2338,7 +2345,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
@@ -2347,7 +2354,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>
@@ -2356,7 +2363,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2365,7 +2372,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
@@ -2374,7 +2381,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -384,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -497,7 +499,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -541,6 +543,7 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -584,6 +587,7 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1258,7 +1262,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1355,7 +1359,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -1492,6 +1496,9 @@
       <c r="C9" s="1">
         <v>3</v>
       </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -1584,7 +1591,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -384,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,7 +501,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -544,6 +546,7 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -588,6 +591,7 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1262,7 +1266,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1359,7 +1363,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1371,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1508,6 +1512,9 @@
       <c r="C10" s="1">
         <v>10</v>
       </c>
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -1591,7 +1598,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -384,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -501,7 +503,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -547,6 +549,7 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -592,6 +595,7 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1266,7 +1270,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1363,7 +1367,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -1524,6 +1528,9 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -1598,7 +1605,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -384,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -503,7 +505,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -550,6 +552,7 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -596,6 +599,7 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1270,7 +1274,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,7 +1371,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1540,6 +1544,9 @@
       <c r="C12" s="1">
         <v>8</v>
       </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1605,7 +1612,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -384,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,7 +507,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -553,6 +555,7 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -600,6 +603,7 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1274,7 +1278,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1371,7 +1375,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1388,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1556,6 +1560,9 @@
       <c r="C13" s="1">
         <v>8</v>
       </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -1612,7 +1619,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -268,9 +268,6 @@
     <t>should_return_200_when_get_inventory_unloading_success</t>
   </si>
   <si>
-    <t>should_return_404_when_get_inventory_unloading_success</t>
-  </si>
-  <si>
     <t>Map&lt;String,List&lt;Map&gt;&gt;转json</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>should_return_400_when_put_store_fail</t>
+  </si>
+  <si>
+    <t>should_return_404_when_get_inventory_unloading_fail</t>
   </si>
 </sst>
 </file>
@@ -384,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -507,7 +509,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -556,6 +558,7 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -604,6 +607,7 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -896,7 +900,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -982,7 +986,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -997,7 +1001,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1048,7 +1052,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1078,7 +1082,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1102,7 +1106,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1114,7 +1118,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1126,7 +1130,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1241,7 +1245,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1278,7 +1282,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,7 +1371,7 @@
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4">
         <f>SUM(B2:B9)</f>
@@ -1375,7 +1379,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1392,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1402,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1495,7 +1499,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1507,7 +1511,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1567,9 +1571,12 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1619,7 +1626,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1657,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1793,7 +1800,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1858,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1902,7 +1909,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2079,7 +2086,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2233,7 +2240,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2353,7 +2360,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>should_return_404_when_get_inventory_unloading_fail</t>
+  </si>
+  <si>
+    <t>inventory需要items</t>
   </si>
 </sst>
 </file>
@@ -384,8 +387,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -509,7 +514,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -559,6 +564,7 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -608,6 +614,7 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1282,7 +1289,7 @@
       </c>
       <c r="C3" s="4">
         <f>InventoryService!D19</f>
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1379,7 +1386,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1399,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1588,6 +1595,12 @@
       <c r="C15" s="1">
         <v>10</v>
       </c>
+      <c r="D15" s="1">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -1626,7 +1639,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>Task</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>should_return_200_when_get_inventory_success</t>
-  </si>
-  <si>
-    <t>should_call_product_service_when_get_inventory</t>
   </si>
   <si>
     <t>should_return_201_when_post_store_success</t>
@@ -387,8 +384,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -514,7 +515,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -565,6 +566,8 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -615,6 +618,8 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -907,7 +912,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -924,7 +929,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -948,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -963,7 +968,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -978,7 +983,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -993,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1008,7 +1013,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,7 +1064,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1089,7 +1094,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1113,7 +1118,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1125,7 +1130,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1137,7 +1142,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1252,7 +1257,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1284,12 +1289,12 @@
         <v>InventoryService</v>
       </c>
       <c r="B3" s="4">
-        <f>InventoryService!C19</f>
-        <v>111</v>
+        <f>InventoryService!C18</f>
+        <v>103</v>
       </c>
       <c r="C3" s="4">
-        <f>InventoryService!D19</f>
-        <v>86</v>
+        <f>InventoryService!D18</f>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,15 +1383,15 @@
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="4">
         <f>SUM(B2:B9)</f>
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -1396,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1413,7 +1418,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1430,7 +1435,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1446,7 +1451,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1458,7 +1463,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1470,7 +1475,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1482,7 +1487,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1494,7 +1499,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1506,7 +1511,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1518,7 +1523,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1542,7 +1547,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1554,7 +1559,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -1566,7 +1571,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1578,7 +1583,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1599,16 +1604,19 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1619,32 +1627,26 @@
       <c r="C17" s="1">
         <v>8</v>
       </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1">
-        <f>SUM(C2:C18)</f>
-        <v>111</v>
-      </c>
-      <c r="D19" s="1">
-        <f>SUM(D2:D18)</f>
-        <v>86</v>
+        <f>SUM(C2:C17)</f>
+        <v>103</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM(D2:D17)</f>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A2:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1670,7 +1672,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1687,7 +1689,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1703,7 +1705,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1715,7 +1717,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1727,7 +1729,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1739,7 +1741,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1751,7 +1753,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1763,7 +1765,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1813,7 +1815,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1830,7 +1832,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1845,7 +1847,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1857,7 +1859,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1869,7 +1871,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1878,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1922,7 +1924,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1939,7 +1941,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1954,7 +1956,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1963,7 +1965,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1972,7 +1974,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1981,7 +1983,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1990,7 +1992,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -1999,7 +2001,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -2008,7 +2010,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -2017,7 +2019,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -2026,7 +2028,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -2035,7 +2037,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -2099,7 +2101,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2116,7 +2118,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -2131,7 +2133,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2143,7 +2145,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -2155,7 +2157,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -2167,7 +2169,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -2179,7 +2181,7 @@
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -2191,7 +2193,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -2203,7 +2205,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2253,7 +2255,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2270,7 +2272,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -2282,7 +2284,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2291,7 +2293,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2300,7 +2302,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2309,7 +2311,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -2318,7 +2320,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -2327,7 +2329,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -2373,7 +2375,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2391,7 +2393,7 @@
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -2400,7 +2402,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
@@ -2409,7 +2411,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>
@@ -2418,7 +2420,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2427,7 +2429,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
@@ -2436,7 +2438,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1909,7 +1909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D15" s="1">
         <f>SUM(D2:D14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -384,8 +384,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,7 +517,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -568,6 +570,7 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -620,6 +623,7 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1336,7 +1340,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D15</f>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,7 +1395,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1914,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1961,6 +1965,9 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
+      <c r="D3" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
@@ -2071,7 +2078,7 @@
       </c>
       <c r="D15" s="1">
         <f>SUM(D2:D14)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2079,6 +2086,7 @@
     <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D15</f>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1977,6 +1977,9 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -2078,7 +2081,7 @@
       </c>
       <c r="D15" s="1">
         <f>SUM(D2:D14)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>inventory需要items</t>
+  </si>
+  <si>
+    <t>should_call_price_service_when_create_returnOrder</t>
   </si>
 </sst>
 </file>
@@ -1335,12 +1338,12 @@
         <v>RefundService</v>
       </c>
       <c r="B6" s="4">
-        <f>RefundService!C15</f>
-        <v>89</v>
+        <f>RefundService!C16</f>
+        <v>97</v>
       </c>
       <c r="C6" s="4">
-        <f>RefundService!D15</f>
-        <v>22</v>
+        <f>RefundService!D16</f>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,11 +1394,11 @@
       </c>
       <c r="B10" s="4">
         <f>SUM(B2:B9)</f>
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>421</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -1911,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1989,20 +1992,26 @@
       <c r="C5" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="4">
         <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -2011,82 +2020,91 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
-        <f>SUM(C2:C14)</f>
-        <v>89</v>
-      </c>
-      <c r="D15" s="1">
-        <f>SUM(D2:D14)</f>
-        <v>22</v>
+      <c r="C16" s="1">
+        <f>SUM(C2:C15)</f>
+        <v>97</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(D2:D15)</f>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -387,8 +387,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -520,7 +522,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -574,6 +576,7 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -627,6 +630,7 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1343,7 +1347,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D16</f>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1398,7 +1402,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1921,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2016,6 +2020,9 @@
       <c r="C7" s="1">
         <v>8</v>
       </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -2099,7 +2106,7 @@
       </c>
       <c r="D16" s="1">
         <f>SUM(D2:D15)</f>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="FunctionTest" sheetId="11" r:id="rId9"/>
     <sheet name="ConfigService" sheetId="10" r:id="rId10"/>
     <sheet name="RegisterService" sheetId="9" r:id="rId11"/>
-    <sheet name="total" sheetId="12" r:id="rId12"/>
+    <sheet name="Extra" sheetId="13" r:id="rId12"/>
+    <sheet name="total" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PriceService!$A$1:$E$6</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>Task</t>
   </si>
@@ -317,6 +318,9 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>第一个服务生疏</t>
   </si>
   <si>
     <t>should_return_201_when_put_store_success</t>
@@ -387,8 +391,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -522,7 +528,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -577,6 +583,7 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -631,6 +638,7 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -908,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1188,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1253,10 +1261,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1293,6 +1315,9 @@
         <f>OrderService!D19</f>
         <v>190</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
@@ -1347,7 +1372,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D16</f>
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1402,7 +1427,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1522,7 +1547,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1534,7 +1559,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1594,7 +1619,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1615,7 +1640,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2003,7 +2028,7 @@
     <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4">
         <v>8</v>
@@ -2032,6 +2057,9 @@
       <c r="C8" s="1">
         <v>8</v>
       </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -2106,7 +2134,7 @@
       </c>
       <c r="D16" s="1">
         <f>SUM(D2:D15)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -170,9 +170,6 @@
     <t>should_return_200_when_get_returnOrder_success</t>
   </si>
   <si>
-    <t>should_return_404_when_get_returnOrder_success</t>
-  </si>
-  <si>
     <t>should_create_returnItems_when_create_returnOrder</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>should_call_price_service_when_create_returnOrder</t>
+  </si>
+  <si>
+    <t>should_return_404_when_get_returnOrder_fail</t>
   </si>
 </sst>
 </file>
@@ -391,8 +391,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -528,7 +530,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -584,6 +586,7 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -639,6 +642,7 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -931,7 +935,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -948,7 +952,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -972,7 +976,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -987,7 +991,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1002,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1032,7 +1036,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1083,7 +1087,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1113,7 +1117,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1137,7 +1141,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1149,7 +1153,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1161,7 +1165,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1290,7 +1294,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1316,7 +1320,7 @@
         <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1419,7 +1423,7 @@
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="4">
         <f>SUM(B2:B9)</f>
@@ -1454,7 +1458,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1471,7 +1475,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1547,7 +1551,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1559,7 +1563,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1595,7 +1599,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -1607,7 +1611,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1619,7 +1623,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1640,7 +1644,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1708,7 +1712,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1725,7 +1729,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1801,7 +1805,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1851,7 +1855,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1868,7 +1872,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1916,7 +1920,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1946,7 +1950,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1960,7 +1964,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1977,7 +1981,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -2004,7 +2008,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -2028,7 +2032,7 @@
     <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4">
         <v>8</v>
@@ -2064,7 +2068,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2073,7 +2077,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -2082,7 +2086,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -2091,7 +2095,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -2100,7 +2104,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -2165,7 +2169,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2182,7 +2186,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -2197,7 +2201,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2209,7 +2213,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -2221,7 +2225,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -2233,7 +2237,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -2245,7 +2249,7 @@
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -2257,7 +2261,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -2269,7 +2273,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2319,7 +2323,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2336,7 +2340,7 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -2348,7 +2352,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2357,7 +2361,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2366,7 +2370,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2375,7 +2379,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -2384,7 +2388,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -2393,7 +2397,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -2439,7 +2443,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2457,7 +2461,7 @@
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -2466,7 +2470,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
@@ -2475,7 +2479,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>
@@ -2484,7 +2488,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2493,7 +2497,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
@@ -2502,7 +2506,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
   <si>
     <t>Task</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>should_return_404_when_get_returnOrder_fail</t>
+  </si>
+  <si>
+    <t>重构returnOrderApi</t>
+  </si>
+  <si>
+    <t>验证和计算逻辑</t>
   </si>
 </sst>
 </file>
@@ -391,8 +397,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -530,7 +538,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -587,6 +595,7 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -643,6 +652,7 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -920,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1376,7 +1386,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D16</f>
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1431,7 +1441,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1950,7 +1960,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2040,6 +2050,9 @@
       <c r="D6" s="4">
         <v>14</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -2073,6 +2086,9 @@
       <c r="C9" s="1">
         <v>3</v>
       </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -2082,6 +2098,12 @@
       <c r="C10" s="1">
         <v>10</v>
       </c>
+      <c r="D10" s="1">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -2138,7 +2160,7 @@
       </c>
       <c r="D16" s="1">
         <f>SUM(D2:D15)</f>
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -397,8 +397,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -538,7 +540,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="117">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -596,6 +598,7 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -653,6 +656,7 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1386,7 +1390,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D16</f>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1441,7 +1445,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1964,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2113,6 +2117,9 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -2160,7 +2167,7 @@
       </c>
       <c r="D16" s="1">
         <f>SUM(D2:D15)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -397,8 +397,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -540,7 +542,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -599,6 +601,7 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -657,6 +660,7 @@
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1390,7 +1394,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D16</f>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1445,7 +1449,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -2129,6 +2133,9 @@
       <c r="C12" s="1">
         <v>8</v>
       </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -2167,7 +2174,7 @@
       </c>
       <c r="D16" s="1">
         <f>SUM(D2:D15)</f>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -80,12 +80,6 @@
     <t>should_return_200_when_get_logistic_success</t>
   </si>
   <si>
-    <t>should_return_400_when_post_comfirmation_fail</t>
-  </si>
-  <si>
-    <t>should_return_200_when_get_comfirmation_success</t>
-  </si>
-  <si>
     <t>set up project</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
   </si>
   <si>
     <t>should_return_200_when_get_refund_success</t>
-  </si>
-  <si>
-    <t>should_return_201_when_post_comfirmation_success</t>
   </si>
   <si>
     <t>should_return_201_when_post_cart_success</t>
@@ -397,8 +388,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -542,7 +535,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -602,6 +595,7 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -661,6 +655,7 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -953,7 +948,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -970,10 +965,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -994,13 +989,13 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -1009,13 +1004,13 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1024,13 +1019,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1039,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1105,13 +1100,13 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1135,7 +1130,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1159,7 +1154,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1171,7 +1166,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1183,7 +1178,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1194,7 +1189,7 @@
     </row>
     <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C2:C18)</f>
@@ -1312,7 +1307,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1338,7 +1333,7 @@
         <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1394,7 +1389,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D16</f>
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1441,7 +1436,7 @@
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B10" s="4">
         <f>SUM(B2:B9)</f>
@@ -1449,7 +1444,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1471,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1493,10 +1488,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1509,7 +1504,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1521,7 +1516,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1533,7 +1528,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1545,7 +1540,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1557,7 +1552,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1569,7 +1564,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1581,7 +1576,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1593,7 +1588,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -1605,7 +1600,7 @@
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1617,7 +1612,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -1629,7 +1624,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1641,7 +1636,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1653,7 +1648,7 @@
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -1662,13 +1657,13 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1680,7 +1675,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -1691,7 +1686,7 @@
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
@@ -1730,7 +1725,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1747,10 +1742,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1763,7 +1758,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1775,7 +1770,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1787,7 +1782,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1799,7 +1794,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -1811,7 +1806,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1823,7 +1818,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1834,7 +1829,7 @@
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <f>SUM(C2:C8)</f>
@@ -1873,7 +1868,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1890,10 +1885,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -1905,7 +1900,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1917,7 +1912,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1929,7 +1924,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1938,12 +1933,12 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <f>SUM(C2:C5)</f>
@@ -1968,7 +1963,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1982,7 +1977,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1999,10 +1994,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -2014,7 +2009,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2026,7 +2021,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -2038,7 +2033,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -2050,7 +2045,7 @@
     <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4">
         <v>8</v>
@@ -2059,13 +2054,13 @@
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -2077,7 +2072,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>8</v>
@@ -2089,7 +2084,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2101,7 +2096,7 @@
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -2110,13 +2105,13 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -2128,7 +2123,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -2140,16 +2135,19 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -2158,7 +2156,7 @@
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
@@ -2166,7 +2164,7 @@
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <f>SUM(C2:C15)</f>
@@ -2174,7 +2172,7 @@
       </c>
       <c r="D16" s="1">
         <f>SUM(D2:D15)</f>
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2203,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,10 +2220,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -2237,7 +2235,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2249,7 +2247,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -2261,7 +2259,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -2273,7 +2271,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -2285,7 +2283,7 @@
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -2297,7 +2295,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -2309,7 +2307,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2320,7 +2318,7 @@
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C2:C9)</f>
@@ -2359,7 +2357,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2376,10 +2374,10 @@
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -2388,7 +2386,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -2397,7 +2395,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2406,7 +2404,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2415,7 +2413,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -2424,7 +2422,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -2433,7 +2431,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -2441,7 +2439,7 @@
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <f>SUM(C2:C8)</f>
@@ -2479,7 +2477,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2497,7 +2495,7 @@
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -2506,7 +2504,7 @@
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
@@ -2515,7 +2513,7 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>
@@ -2524,7 +2522,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2533,7 +2531,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
@@ -2542,7 +2540,7 @@
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -2550,7 +2548,7 @@
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <f>SUM(C2:C7)</f>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>Task</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>验证和计算逻辑</t>
+  </si>
+  <si>
+    <t>confirmation失败逻辑</t>
   </si>
 </sst>
 </file>
@@ -388,8 +391,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -535,7 +540,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -596,6 +601,7 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -656,6 +662,7 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1389,7 +1396,7 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D16</f>
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,7 +1451,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1970,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2152,6 +2159,12 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -2172,7 +2185,7 @@
       </c>
       <c r="D16" s="1">
         <f>SUM(D2:D15)</f>
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>Task</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>confirmation失败逻辑</t>
+  </si>
+  <si>
+    <t>退款、确认等逻辑验证</t>
   </si>
 </sst>
 </file>
@@ -391,8 +394,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -540,7 +545,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -602,6 +607,7 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -663,6 +669,7 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1301,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1396,7 +1403,10 @@
       </c>
       <c r="C6" s="4">
         <f>RefundService!D16</f>
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1451,7 +1461,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -1969,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2174,6 +2184,9 @@
       <c r="C15" s="1">
         <v>8</v>
       </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -2185,7 +2198,7 @@
       </c>
       <c r="D16" s="1">
         <f>SUM(D2:D15)</f>
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -1308,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C8" s="4">
         <f>UserService!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +1980,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2368,7 +2368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2408,6 +2408,9 @@
       <c r="C2" s="1">
         <v>5</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -2473,7 +2476,7 @@
       </c>
       <c r="D9" s="1">
         <f>SUM(D2:D8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -394,8 +394,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -545,7 +547,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -608,6 +610,7 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -670,6 +673,7 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1434,7 +1438,7 @@
       </c>
       <c r="C8" s="4">
         <f>UserService!D9</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1461,7 +1465,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +2373,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2420,6 +2424,9 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
@@ -2476,7 +2483,7 @@
       </c>
       <c r="D9" s="1">
         <f>SUM(D2:D8)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2484,6 +2491,7 @@
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -394,8 +394,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -547,7 +549,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -611,6 +613,7 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -674,6 +677,7 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1438,7 +1442,7 @@
       </c>
       <c r="C8" s="4">
         <f>UserService!D9</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1465,7 +1469,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2377,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2436,6 +2440,9 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -2483,7 +2490,7 @@
       </c>
       <c r="D9" s="1">
         <f>SUM(D2:D8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -394,8 +394,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -549,7 +551,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -614,6 +616,7 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -678,6 +681,7 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1442,7 +1446,7 @@
       </c>
       <c r="C8" s="4">
         <f>UserService!D9</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1469,7 +1473,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2381,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2452,6 +2456,9 @@
       <c r="C5" s="1">
         <v>10</v>
       </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
@@ -2490,7 +2497,7 @@
       </c>
       <c r="D9" s="1">
         <f>SUM(D2:D8)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -394,8 +394,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -551,7 +553,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -617,6 +619,7 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -682,6 +685,7 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1446,7 +1450,7 @@
       </c>
       <c r="C8" s="4">
         <f>UserService!D9</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1473,7 +1477,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -2468,6 +2472,9 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -2497,7 +2504,7 @@
       </c>
       <c r="D9" s="1">
         <f>SUM(D2:D8)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -394,8 +394,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -553,7 +557,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -620,6 +624,8 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -686,6 +692,8 @@
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1450,7 +1458,7 @@
       </c>
       <c r="C8" s="4">
         <f>UserService!D9</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,7 +1485,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +2393,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2484,6 +2492,9 @@
       <c r="C7" s="1">
         <v>8</v>
       </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -2493,6 +2504,9 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -2504,7 +2518,7 @@
       </c>
       <c r="D9" s="1">
         <f>SUM(D2:D8)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
   <si>
     <t>Task</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>退款、确认等逻辑验证</t>
+  </si>
+  <si>
+    <t>解决migration问题，写 shell脚本</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1336,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1472,7 +1475,7 @@
       </c>
       <c r="C9" s="4">
         <f>Docker!D8</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1485,7 +1488,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -2392,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2534,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2572,6 +2575,12 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
+      <c r="D2" s="1">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -2628,7 +2637,7 @@
       </c>
       <c r="D8" s="1">
         <f>SUM(D2:D7)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>Task</t>
   </si>
@@ -212,18 +212,9 @@
     <t>add mysql docker in docker-compost.yml</t>
   </si>
   <si>
-    <t>add docker file to all services</t>
-  </si>
-  <si>
     <t>package all services</t>
   </si>
   <si>
-    <t>debugging</t>
-  </si>
-  <si>
-    <t>launch docker and build images</t>
-  </si>
-  <si>
     <t>should_return_201_when_put_product_success</t>
   </si>
   <si>
@@ -342,6 +333,9 @@
   </si>
   <si>
     <t>解决migration问题，写 shell脚本</t>
+  </si>
+  <si>
+    <t>launch docker and debugging</t>
   </si>
 </sst>
 </file>
@@ -989,7 +983,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1030,7 +1024,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1045,7 +1039,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1060,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1075,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1090,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1141,7 +1135,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,7 +1165,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1195,7 +1189,7 @@
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1207,7 +1201,7 @@
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1219,7 +1213,7 @@
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1348,7 +1342,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1374,7 +1368,7 @@
         <v>190</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1433,7 +1427,7 @@
         <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1470,21 +1464,21 @@
         <v>Docker</v>
       </c>
       <c r="B9" s="4">
-        <f>Docker!C8</f>
-        <v>120</v>
+        <f>Docker!C6</f>
+        <v>95</v>
       </c>
       <c r="C9" s="4">
-        <f>Docker!D8</f>
+        <f>Docker!D6</f>
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4">
         <f>SUM(B2:B9)</f>
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
@@ -1515,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1608,7 +1602,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1620,7 +1614,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1656,7 +1650,7 @@
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -1668,7 +1662,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1680,7 +1674,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1701,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1769,7 +1763,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1862,7 +1856,7 @@
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1912,7 +1906,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1977,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2021,7 +2015,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2089,7 +2083,7 @@
     <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4">
         <v>8</v>
@@ -2098,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2128,7 +2122,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2149,7 +2143,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2179,7 +2173,7 @@
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -2191,7 +2185,7 @@
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -2200,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
@@ -2256,7 +2250,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2348,7 +2342,7 @@
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -2360,7 +2354,7 @@
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -2410,7 +2404,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2466,7 +2460,7 @@
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2478,7 +2472,7 @@
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -2535,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2552,7 +2546,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2570,7 +2564,7 @@
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -2579,13 +2573,13 @@
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
@@ -2594,55 +2588,37 @@
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <f>SUM(C2:C7)</f>
-        <v>120</v>
-      </c>
-      <c r="D8" s="1">
-        <f>SUM(D2:D7)</f>
+        <f>SUM(C2:C5)</f>
+        <v>95</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM(D2:D5)</f>
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>Task</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>launch docker and debugging</t>
+  </si>
+  <si>
+    <t>拉docker时间未记入</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1472,7 @@
       </c>
       <c r="C9" s="4">
         <f>Docker!D6</f>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1482,7 +1485,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2535,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2584,6 +2587,12 @@
       <c r="C3" s="1">
         <v>15</v>
       </c>
+      <c r="D3" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -2593,6 +2602,9 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -2613,7 +2625,7 @@
       </c>
       <c r="D6" s="1">
         <f>SUM(D2:D5)</f>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C9" s="4">
         <f>Docker!D6</f>
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>571</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -2535,7 +2535,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2602,6 +2602,9 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>98</v>
       </c>
@@ -2614,6 +2617,9 @@
       <c r="C5" s="1">
         <v>60</v>
       </c>
+      <c r="D5" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2625,7 +2631,7 @@
       </c>
       <c r="D6" s="1">
         <f>SUM(D2:D5)</f>
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
   <si>
     <t>Task</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>拉docker时间未记入</t>
+  </si>
+  <si>
+    <t>add nginx</t>
   </si>
 </sst>
 </file>
@@ -1467,11 +1470,11 @@
         <v>Docker</v>
       </c>
       <c r="B9" s="4">
-        <f>Docker!C6</f>
-        <v>95</v>
+        <f>Docker!C7</f>
+        <v>110</v>
       </c>
       <c r="C9" s="4">
-        <f>Docker!D6</f>
+        <f>Docker!D7</f>
         <v>108</v>
       </c>
     </row>
@@ -1481,7 +1484,7 @@
       </c>
       <c r="B10" s="4">
         <f>SUM(B2:B9)</f>
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
@@ -2532,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2609,34 +2612,43 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>60</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
-        <f>SUM(C2:C5)</f>
-        <v>95</v>
-      </c>
-      <c r="D6" s="1">
-        <f>SUM(D2:D5)</f>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>110</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM(D2:D6)</f>
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C9" s="4">
         <f>Docker!D7</f>
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C10" s="4">
         <f>SUM(C2:C9)</f>
-        <v>635</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2538,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2620,6 +2620,9 @@
       <c r="C5" s="4">
         <v>15</v>
       </c>
+      <c r="D5" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -2643,7 +2646,7 @@
       </c>
       <c r="D7" s="1">
         <f>SUM(D2:D6)</f>
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="103">
   <si>
     <t>Task</t>
   </si>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>add nginx</t>
+  </si>
+  <si>
+    <t>写shell脚本解决docker启动顺序问题</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>mysql docker数量由七个合为一个，使用不同数据库</t>
   </si>
 </sst>
 </file>
@@ -536,7 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,6 +560,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -974,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1005,7 +1017,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1019,7 +1031,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1046,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1061,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +1076,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1079,7 +1091,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1106,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1118,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1130,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1142,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1157,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +1169,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1181,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1181,7 +1193,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1205,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1205,7 +1217,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
@@ -1217,7 +1229,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1254,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1288,7 +1300,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1319,24 +1331,83 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60" style="4" customWidth="1"/>
+    <col min="3" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="36" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>120</v>
+      </c>
+      <c r="D2" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="6">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM(C2:C3)</f>
+        <v>240</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM(D2:D3)</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1479,14 +1550,28 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="4" t="str">
+        <f>Extra!A1</f>
+        <v>Extra</v>
+      </c>
+      <c r="B10" s="4">
+        <f>Extra!C4</f>
+        <v>240</v>
+      </c>
+      <c r="C10" s="4">
+        <f>Extra!D4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <f>SUM(B2:B9)</f>
         <v>584</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <f>SUM(C2:C9)</f>
         <v>649</v>
       </c>
@@ -1500,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1531,7 +1616,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1546,7 +1631,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1558,7 +1643,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1570,7 +1655,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1582,7 +1667,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1594,7 +1679,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1691,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
@@ -1618,7 +1703,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
@@ -1630,7 +1715,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1642,7 +1727,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1739,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1666,7 +1751,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1678,7 +1763,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
@@ -1690,7 +1775,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1705,7 +1790,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1717,7 +1802,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1785,7 +1870,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1800,7 +1885,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1897,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1824,7 +1909,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1836,7 +1921,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1848,7 +1933,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,7 +1945,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1928,7 +2013,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1942,7 +2027,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1954,7 +2039,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1966,7 +2051,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2037,7 +2122,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2051,7 +2136,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2063,7 +2148,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2075,7 +2160,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2087,7 +2172,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>90</v>
       </c>
@@ -2102,7 +2187,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
@@ -2114,7 +2199,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,7 +2211,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
@@ -2138,7 +2223,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2153,7 +2238,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2165,7 +2250,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
@@ -2177,7 +2262,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2189,7 +2274,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
@@ -2204,7 +2289,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
@@ -2272,7 +2357,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2286,7 +2371,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2298,7 +2383,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2310,7 +2395,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2322,7 +2407,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
@@ -2334,7 +2419,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
@@ -2346,7 +2431,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
@@ -2358,7 +2443,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
@@ -2426,7 +2511,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2440,7 +2525,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -2452,7 +2537,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
@@ -2464,7 +2549,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -2476,7 +2561,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
@@ -2488,7 +2573,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2500,7 +2585,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
@@ -2537,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2568,7 +2653,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
@@ -2583,7 +2668,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
@@ -2598,7 +2683,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -2613,7 +2698,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
@@ -2625,7 +2710,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,8 @@
     <sheet name="CartService" sheetId="6" r:id="rId6"/>
     <sheet name="UserService" sheetId="7" r:id="rId7"/>
     <sheet name="Docker" sheetId="8" r:id="rId8"/>
-    <sheet name="FunctionTest" sheetId="11" r:id="rId9"/>
-    <sheet name="ConfigService" sheetId="10" r:id="rId10"/>
-    <sheet name="RegisterService" sheetId="9" r:id="rId11"/>
-    <sheet name="Extra" sheetId="13" r:id="rId12"/>
-    <sheet name="total" sheetId="12" r:id="rId13"/>
+    <sheet name="Extra" sheetId="13" r:id="rId9"/>
+    <sheet name="total" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PriceService!$A$1:$E$6</definedName>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
   <si>
     <t>Task</t>
   </si>
@@ -351,6 +348,120 @@
   </si>
   <si>
     <t>mysql docker数量由七个合为一个，使用不同数据库</t>
+  </si>
+  <si>
+    <t>性能问题</t>
+  </si>
+  <si>
+    <t>create order</t>
+  </si>
+  <si>
+    <t>get orders</t>
+  </si>
+  <si>
+    <t>get order</t>
+  </si>
+  <si>
+    <t>create payment</t>
+  </si>
+  <si>
+    <t>get payment</t>
+  </si>
+  <si>
+    <t>get logistic</t>
+  </si>
+  <si>
+    <t>create confirmation</t>
+  </si>
+  <si>
+    <t>get confirmation</t>
+  </si>
+  <si>
+    <t>create store</t>
+  </si>
+  <si>
+    <t>get stores</t>
+  </si>
+  <si>
+    <t>get store</t>
+  </si>
+  <si>
+    <t>udate store</t>
+  </si>
+  <si>
+    <t>create uploading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get unloading </t>
+  </si>
+  <si>
+    <t>get unloadings</t>
+  </si>
+  <si>
+    <t>create inventory</t>
+  </si>
+  <si>
+    <t>get inventory</t>
+  </si>
+  <si>
+    <t>Frontend Lib</t>
+  </si>
+  <si>
+    <t>create product</t>
+  </si>
+  <si>
+    <t>get products</t>
+  </si>
+  <si>
+    <t>get product</t>
+  </si>
+  <si>
+    <t>update product</t>
+  </si>
+  <si>
+    <t>create price</t>
+  </si>
+  <si>
+    <t>get price</t>
+  </si>
+  <si>
+    <t>create returnOrder</t>
+  </si>
+  <si>
+    <t>get returnOrders</t>
+  </si>
+  <si>
+    <t>get returnOrder</t>
+  </si>
+  <si>
+    <t>create refund</t>
+  </si>
+  <si>
+    <t>get refund</t>
+  </si>
+  <si>
+    <t>create cart</t>
+  </si>
+  <si>
+    <t>get cart</t>
+  </si>
+  <si>
+    <t>update cart</t>
+  </si>
+  <si>
+    <t>create user</t>
+  </si>
+  <si>
+    <t>update user</t>
+  </si>
+  <si>
+    <t>get user</t>
+  </si>
+  <si>
+    <t>修复nginx location</t>
+  </si>
+  <si>
+    <t>调试发包请求</t>
   </si>
 </sst>
 </file>
@@ -406,7 +517,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -544,8 +655,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,11 +681,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -641,6 +760,7 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -709,6 +829,7 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -984,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1138,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1031,7 +1152,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1167,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1182,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1197,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1091,7 +1212,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1227,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1118,7 +1239,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1251,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,7 +1263,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1278,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1290,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1302,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1193,7 +1314,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,7 +1326,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1217,7 +1338,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
@@ -1229,7 +1350,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1241,6 +1362,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1253,9 +1375,103 @@
         <v>190</v>
       </c>
     </row>
+    <row r="21" spans="1:4" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <f>SUM(C21:C29)</f>
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A18"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1264,329 +1480,271 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60" style="4" customWidth="1"/>
-    <col min="3" max="4" width="12" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="36" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="4">
-        <v>120</v>
-      </c>
-      <c r="D2" s="4">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="6">
-        <v>120</v>
-      </c>
-      <c r="D3" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <f>SUM(C2:C3)</f>
-        <v>240</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM(D2:D3)</f>
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="24" style="4"/>
-    <col min="4" max="4" width="60" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="24" style="4"/>
+    <col min="1" max="1" width="24" style="4"/>
+    <col min="2" max="2" width="24" style="7"/>
+    <col min="3" max="4" width="24" style="4"/>
+    <col min="5" max="5" width="60" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="24" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="str">
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="str">
         <f>OrderService!A1</f>
         <v>OrderService</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4">
         <f>OrderService!C19</f>
         <v>107</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <f>OrderService!D19</f>
         <v>190</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="str">
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="str">
         <f>InventoryService!A1</f>
         <v>InventoryService</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4">
         <f>InventoryService!C18</f>
         <v>103</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D4" s="4">
         <f>InventoryService!D18</f>
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="str">
+    <row r="5" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="str">
         <f>ProductService!A1</f>
         <v>ProductService</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4">
         <f>ProductService!C9</f>
         <v>47</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D6" s="4">
         <f>ProductService!D9</f>
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="str">
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="str">
         <f>PriceService!A1</f>
         <v>PriceService</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4">
         <f>PriceService!C6</f>
         <v>26</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D8" s="4">
         <f>PriceService!D6</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="str">
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="str">
         <f>RefundService!A1</f>
         <v>RefundService</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4">
         <f>RefundService!C16</f>
         <v>97</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D10" s="4">
         <f>RefundService!D16</f>
         <v>109</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="str">
+    <row r="11" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="str">
         <f>CartService!A1</f>
         <v>CartService</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="4">
         <f>CartService!C10</f>
         <v>52</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D12" s="4">
         <f>CartService!D10</f>
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="str">
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="str">
         <f>UserService!A1</f>
         <v>UserService</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4">
         <f>UserService!C9</f>
         <v>42</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D14" s="4">
         <f>UserService!D9</f>
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="str">
+    <row r="15" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="str">
         <f>Docker!A1</f>
         <v>Docker</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B16" s="8"/>
+      <c r="C16" s="4">
         <f>Docker!C7</f>
         <v>110</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D16" s="4">
         <f>Docker!D7</f>
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="str">
+    <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="str">
         <f>Extra!A1</f>
         <v>Extra</v>
       </c>
-      <c r="B10" s="4">
-        <f>Extra!C4</f>
-        <v>240</v>
-      </c>
-      <c r="C10" s="4">
-        <f>Extra!D4</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="4">
+        <f>Extra!C5</f>
+        <v>300</v>
+      </c>
+      <c r="D17" s="4">
+        <f>Extra!D5</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="4">
-        <f>SUM(B2:B9)</f>
-        <v>584</v>
-      </c>
-      <c r="C11" s="4">
-        <f>SUM(C2:C9)</f>
-        <v>649</v>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4">
+        <f>SUM(C2:C17)</f>
+        <v>884</v>
+      </c>
+      <c r="D18" s="4">
+        <f>SUM(D2:D17)</f>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1616,7 +1774,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1631,7 +1789,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1643,7 +1801,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,7 +1813,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1667,7 +1825,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1679,7 +1837,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1691,7 +1849,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
@@ -1703,7 +1861,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
@@ -1715,7 +1873,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1727,7 +1885,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1739,7 +1897,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1751,7 +1909,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1763,7 +1921,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
@@ -1775,7 +1933,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1948,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1802,7 +1960,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1814,6 +1972,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1826,9 +1985,72 @@
         <v>91</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A17"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A20:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1837,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1870,7 +2092,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1885,7 +2107,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1897,7 +2119,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1909,7 +2131,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1921,7 +2143,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1933,7 +2155,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,7 +2167,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1969,9 +2191,51 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1980,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2013,7 +2277,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2027,7 +2291,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -2039,7 +2303,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -2051,7 +2315,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2078,9 +2342,30 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2089,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2122,7 +2407,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2136,7 +2421,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2148,7 +2433,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2160,7 +2445,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2172,7 +2457,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>90</v>
       </c>
@@ -2187,7 +2472,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
@@ -2199,7 +2484,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -2211,7 +2496,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
@@ -2223,7 +2508,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2238,7 +2523,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,7 +2535,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
@@ -2262,7 +2547,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2274,7 +2559,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
@@ -2289,7 +2574,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
@@ -2313,9 +2598,60 @@
         <v>109</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A18:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2324,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2357,7 +2693,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2371,7 +2707,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2719,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2395,7 +2731,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2407,7 +2743,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
@@ -2419,7 +2755,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
@@ -2431,7 +2767,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
@@ -2443,7 +2779,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
@@ -2467,9 +2803,36 @@
         <v>63</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2478,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2511,7 +2874,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2525,7 +2888,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -2537,7 +2900,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
@@ -2549,7 +2912,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -2561,7 +2924,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
@@ -2573,7 +2936,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2585,7 +2948,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
@@ -2609,9 +2972,80 @@
         <v>19</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C11:C14)</f>
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM(D11:D14)</f>
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2622,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2653,7 +3087,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
@@ -2668,7 +3102,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
@@ -2683,7 +3117,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -2698,7 +3132,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
@@ -2710,7 +3144,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
@@ -2744,75 +3178,85 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="1"/>
-    <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12" style="1"/>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60" style="4" customWidth="1"/>
+    <col min="3" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="36" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>120</v>
+      </c>
+      <c r="D2" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="6">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6">
+        <v>75</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="7">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM(C2:C4)</f>
+        <v>300</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM(D2:D4)</f>
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="142">
   <si>
     <t>Task</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>调试发包请求</t>
+  </si>
+  <si>
+    <t>创建price时检查product id与user id是否相符合</t>
   </si>
 </sst>
 </file>
@@ -517,8 +520,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -691,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -761,6 +766,7 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -830,6 +836,7 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1482,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1491,7 +1498,7 @@
     <col min="1" max="1" width="24" style="4"/>
     <col min="2" max="2" width="24" style="7"/>
     <col min="3" max="4" width="24" style="4"/>
-    <col min="5" max="5" width="60" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36" style="4" customWidth="1"/>
     <col min="6" max="16384" width="24" style="4"/>
   </cols>
   <sheetData>
@@ -1604,6 +1611,14 @@
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="C9" s="7">
+        <f>PriceService!C11</f>
+        <v>30</v>
+      </c>
+      <c r="D9" s="7">
+        <f>PriceService!D11</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="str">
@@ -1676,6 +1691,14 @@
       <c r="B15" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="C15" s="7">
+        <f>UserService!C15</f>
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <f>UserService!D15</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="str">
@@ -1714,26 +1737,26 @@
       <c r="B18" s="8"/>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>884</v>
+        <v>959</v>
       </c>
       <c r="D18" s="4">
         <f>SUM(D2:D17)</f>
-        <v>904</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2244,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2342,30 +2365,75 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>126</v>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C8:C10)</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM(D8:D10)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2843,7 +2911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3181,7 +3249,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
   <si>
     <t>Task</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>调试发包请求</t>
-  </si>
-  <si>
-    <t>创建price时检查product id与user id是否相符合</t>
   </si>
 </sst>
 </file>
@@ -1489,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1588,6 +1585,14 @@
       <c r="B7" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="C7" s="7">
+        <f>ProductService!C16</f>
+        <v>55</v>
+      </c>
+      <c r="D7" s="7">
+        <f>ProductService!D16</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="str">
@@ -1617,7 +1622,7 @@
       </c>
       <c r="D9" s="7">
         <f>PriceService!D11</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1737,11 +1742,11 @@
       <c r="B18" s="8"/>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>959</v>
+        <v>1014</v>
       </c>
       <c r="D18" s="4">
         <f>SUM(D2:D17)</f>
-        <v>972</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -2082,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2214,51 +2219,95 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>122</v>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="C16" s="1">
+        <f>SUM(C11:C15)</f>
+        <v>55</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(D11:D15)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2269,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2388,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -2414,21 +2463,11 @@
       </c>
       <c r="D11" s="1">
         <f>SUM(D8:D10)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
   <si>
     <t>Task</t>
   </si>
@@ -517,7 +517,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -659,8 +659,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,6 +687,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -764,6 +771,8 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -834,6 +843,8 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1142,7 +1153,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1156,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1182,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1186,7 +1197,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1212,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1216,7 +1227,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1231,7 +1242,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1254,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1266,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1278,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1293,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1305,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1306,7 +1317,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1318,7 +1329,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1330,7 +1341,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1342,7 +1353,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
@@ -1354,7 +1365,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>73</v>
       </c>
@@ -1366,7 +1377,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,7 +1391,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1391,7 +1402,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>104</v>
       </c>
@@ -1400,7 +1411,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>105</v>
       </c>
@@ -1409,7 +1420,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
@@ -1418,7 +1429,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>107</v>
       </c>
@@ -1427,7 +1438,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>108</v>
       </c>
@@ -1436,7 +1447,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
@@ -1445,7 +1456,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>110</v>
       </c>
@@ -1454,7 +1465,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>111</v>
       </c>
@@ -1463,7 +1474,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1486,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1500,10 +1511,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1515,7 +1526,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="str">
+      <c r="A2" s="9" t="str">
         <f>OrderService!A1</f>
         <v>OrderService</v>
       </c>
@@ -1535,13 +1546,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="str">
+      <c r="A4" s="9" t="str">
         <f>InventoryService!A1</f>
         <v>InventoryService</v>
       </c>
@@ -1558,13 +1569,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="str">
+      <c r="A6" s="9" t="str">
         <f>ProductService!A1</f>
         <v>ProductService</v>
       </c>
@@ -1581,7 +1592,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>121</v>
       </c>
@@ -1595,7 +1606,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="9" t="str">
         <f>PriceService!A1</f>
         <v>PriceService</v>
       </c>
@@ -1612,7 +1623,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -1626,7 +1637,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="9" t="str">
         <f>RefundService!A1</f>
         <v>RefundService</v>
       </c>
@@ -1646,13 +1657,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="9" t="str">
         <f>CartService!A1</f>
         <v>CartService</v>
       </c>
@@ -1669,13 +1680,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="9" t="str">
         <f>UserService!A1</f>
         <v>UserService</v>
       </c>
@@ -1692,7 +1703,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="7" t="s">
         <v>121</v>
       </c>
@@ -1706,11 +1717,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="9" t="str">
         <f>Docker!A1</f>
         <v>Docker</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4">
         <f>Docker!C7</f>
         <v>110</v>
@@ -1721,11 +1732,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="str">
+      <c r="A17" s="9" t="str">
         <f>Extra!A1</f>
         <v>Extra</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4">
         <f>Extra!C5</f>
         <v>300</v>
@@ -1736,10 +1747,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
         <v>1014</v>
@@ -1769,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1802,7 +1813,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1817,7 +1828,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +1840,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1841,7 +1852,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1853,7 +1864,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1865,7 +1876,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1877,7 +1888,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
@@ -1889,7 +1900,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
@@ -1901,7 +1912,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1913,7 +1924,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1925,7 +1936,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
@@ -1937,7 +1948,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1949,7 +1960,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
@@ -1961,7 +1972,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1976,7 +1987,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1988,7 +1999,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2000,7 +2011,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2013,72 +2024,78 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:4" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7" t="s">
+    <row r="27" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="A20:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2120,7 +2137,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2135,7 +2152,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2147,7 +2164,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2159,7 +2176,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2188,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2183,7 +2200,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,7 +2212,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2220,7 +2237,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2234,7 +2251,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
@@ -2246,7 +2263,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>123</v>
       </c>
@@ -2258,7 +2275,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>124</v>
       </c>
@@ -2270,7 +2287,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>125</v>
       </c>
@@ -2282,7 +2299,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2296,13 +2313,13 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
     </row>
     <row r="18" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2318,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2349,7 +2366,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2363,7 +2380,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -2375,7 +2392,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -2387,7 +2404,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2415,7 +2432,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2429,7 +2446,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>126</v>
       </c>
@@ -2441,7 +2458,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>127</v>
       </c>
@@ -2453,7 +2470,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2481,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A25"/>
+      <selection activeCell="A18" sqref="A18:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2514,7 +2531,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2528,7 +2545,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2540,7 +2557,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2552,7 +2569,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2564,7 +2581,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>90</v>
       </c>
@@ -2579,7 +2596,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
@@ -2591,7 +2608,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,7 +2620,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
@@ -2615,7 +2632,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2630,7 +2647,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2642,7 +2659,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
@@ -2654,7 +2671,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2666,7 +2683,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
@@ -2681,7 +2698,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
@@ -2705,60 +2722,66 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A18:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2767,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2800,7 +2823,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2814,7 +2837,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2826,7 +2849,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2838,7 +2861,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2850,7 +2873,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
@@ -2862,7 +2885,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
@@ -2874,7 +2897,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
@@ -2886,7 +2909,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
@@ -2910,36 +2933,74 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM(C12:C15)</f>
+        <v>45</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(D12:D15)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2950,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2981,7 +3042,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2995,7 +3056,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,7 +3068,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
@@ -3019,7 +3080,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -3031,7 +3092,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
@@ -3043,7 +3104,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
@@ -3055,7 +3116,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
@@ -3083,7 +3144,7 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3097,7 +3158,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>136</v>
       </c>
@@ -3112,7 +3173,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>137</v>
       </c>
@@ -3124,7 +3185,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>138</v>
       </c>
@@ -3136,7 +3197,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3194,7 +3255,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
@@ -3209,7 +3270,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
@@ -3224,7 +3285,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -3239,7 +3300,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
@@ -3251,7 +3312,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1400,6 +1400,9 @@
       <c r="C21" s="7">
         <v>5</v>
       </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
@@ -1409,6 +1412,9 @@
       <c r="C22" s="1">
         <v>20</v>
       </c>
+      <c r="D22" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
@@ -1418,6 +1424,9 @@
       <c r="C23" s="1">
         <v>10</v>
       </c>
+      <c r="D23" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
@@ -1425,7 +1434,10 @@
         <v>106</v>
       </c>
       <c r="C24" s="1">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1436,6 +1448,9 @@
       <c r="C25" s="1">
         <v>20</v>
       </c>
+      <c r="D25" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
@@ -1443,7 +1458,10 @@
         <v>108</v>
       </c>
       <c r="C26" s="1">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1452,7 +1470,10 @@
         <v>109</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1461,7 +1482,10 @@
         <v>110</v>
       </c>
       <c r="C28" s="1">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,6 +1496,9 @@
       <c r="C29" s="1">
         <v>10</v>
       </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
@@ -1480,7 +1507,11 @@
       </c>
       <c r="C30" s="1">
         <f>SUM(C21:C29)</f>
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM(D21:D29)</f>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1497,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1550,6 +1581,14 @@
       <c r="B3" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="C3" s="7">
+        <f>OrderService!C30</f>
+        <v>100</v>
+      </c>
+      <c r="D3" s="7">
+        <f>OrderService!D30</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
@@ -1684,6 +1723,14 @@
       <c r="B13" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="C13" s="7">
+        <f>CartService!C16</f>
+        <v>45</v>
+      </c>
+      <c r="D13" s="7">
+        <f>CartService!D16</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="str">
@@ -1753,11 +1800,11 @@
       <c r="B18" s="9"/>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>1014</v>
+        <v>1159</v>
       </c>
       <c r="D18" s="4">
         <f>SUM(D2:D17)</f>
-        <v>1015</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2792,7 +2839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="142">
   <si>
     <t>Task</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>调试发包请求</t>
+  </si>
+  <si>
+    <t>修复后端bug</t>
   </si>
 </sst>
 </file>
@@ -1528,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1612,6 +1615,14 @@
       <c r="B5" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="C5" s="7">
+        <f>InventoryService!C30</f>
+        <v>95</v>
+      </c>
+      <c r="D5" s="7">
+        <f>InventoryService!D30</f>
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
@@ -1800,11 +1811,11 @@
       <c r="B18" s="9"/>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>1159</v>
+        <v>1254</v>
       </c>
       <c r="D18" s="4">
         <f>SUM(D2:D17)</f>
-        <v>1103</v>
+        <v>1180</v>
       </c>
     </row>
   </sheetData>
@@ -1829,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29 C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2045,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -2057,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -2071,72 +2082,143 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <f>SUM(C20:C29)</f>
+        <v>95</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM(D20:D29)</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2547,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2769,60 +2851,88 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <f>SUM(C18:C25)</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1711,6 +1711,14 @@
       <c r="B11" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="C11" s="7">
+        <f>RefundService!C26</f>
+        <v>90</v>
+      </c>
+      <c r="D11" s="7">
+        <f>RefundService!D26</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="str">
@@ -1811,11 +1819,11 @@
       <c r="B18" s="9"/>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>1254</v>
+        <v>1344</v>
       </c>
       <c r="D18" s="4">
         <f>SUM(D2:D17)</f>
-        <v>1180</v>
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -2629,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2851,7 +2859,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>121</v>
       </c>
@@ -2861,8 +2869,11 @@
       <c r="C18" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>128</v>
@@ -2870,8 +2881,11 @@
       <c r="C19" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>129</v>
@@ -2879,8 +2893,11 @@
       <c r="C20" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>130</v>
@@ -2888,8 +2905,11 @@
       <c r="C21" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>131</v>
@@ -2897,8 +2917,11 @@
       <c r="C22" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>132</v>
@@ -2906,8 +2929,11 @@
       <c r="C23" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>110</v>
@@ -2915,8 +2941,11 @@
       <c r="C24" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>111</v>
@@ -2924,8 +2953,11 @@
       <c r="C25" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
@@ -2933,6 +2965,10 @@
       <c r="C26" s="1">
         <f>SUM(C18:C25)</f>
         <v>90</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM(D18:D25)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/task/task.xlsx
+++ b/task/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="OrderService" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="RefundService" sheetId="5" r:id="rId5"/>
     <sheet name="CartService" sheetId="6" r:id="rId6"/>
     <sheet name="UserService" sheetId="7" r:id="rId7"/>
-    <sheet name="Docker" sheetId="8" r:id="rId8"/>
-    <sheet name="Extra" sheetId="13" r:id="rId9"/>
-    <sheet name="total" sheetId="12" r:id="rId10"/>
+    <sheet name="Pages" sheetId="14" r:id="rId8"/>
+    <sheet name="Docker" sheetId="8" r:id="rId9"/>
+    <sheet name="Extra" sheetId="13" r:id="rId10"/>
+    <sheet name="total" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PriceService!$A$1:$E$6</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
   <si>
     <t>Task</t>
   </si>
@@ -465,6 +466,33 @@
   </si>
   <si>
     <t>修复后端bug</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>所有商店页面</t>
+  </si>
+  <si>
+    <t>用户页面</t>
+  </si>
+  <si>
+    <t>商品定价页面</t>
+  </si>
+  <si>
+    <t>商店库存页面</t>
+  </si>
+  <si>
+    <t>用户购物车页面</t>
+  </si>
+  <si>
+    <t>用户订单页面</t>
+  </si>
+  <si>
+    <t>用户退单页面</t>
+  </si>
+  <si>
+    <t>jade不熟</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1529,10 +1557,97 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60" style="4" customWidth="1"/>
+    <col min="3" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="36" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>120</v>
+      </c>
+      <c r="D2" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="6">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6">
+        <v>75</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="7">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM(C2:C4)</f>
+        <v>300</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM(D2:D4)</f>
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1789,55 +1904,70 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="4">
-        <f>Docker!C7</f>
+        <f>Docker!D7</f>
         <v>110</v>
       </c>
       <c r="D16" s="4">
-        <f>Docker!D7</f>
+        <f>Docker!E7</f>
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="str">
+    <row r="17" spans="1:4" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7">
+        <f>Pages!C9</f>
+        <v>150</v>
+      </c>
+      <c r="D17" s="7">
+        <f>Pages!D9</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="str">
         <f>Extra!A1</f>
         <v>Extra</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4">
+      <c r="B18" s="9"/>
+      <c r="C18" s="4">
         <f>Extra!C5</f>
         <v>300</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <f>Extra!D5</f>
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4">
-        <f>SUM(C2:C17)</f>
-        <v>1344</v>
-      </c>
-      <c r="D18" s="4">
-        <f>SUM(D2:D17)</f>
-        <v>1240</v>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4">
+        <f>SUM(C2:C18)</f>
+        <v>1494</v>
+      </c>
+      <c r="D19" s="4">
+        <f>SUM(D2:D18)</f>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2985,8 +3115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3204,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3415,117 +3545,238 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" style="7" customWidth="1"/>
+    <col min="2" max="2" width="60" style="7" customWidth="1"/>
+    <col min="3" max="4" width="12" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="36" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="8">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7">
+        <f>SUM(C2:C8)</f>
+        <v>150</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUM(D2:D8)</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="60" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="60" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
       <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
       <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>60</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <f>SUM(C2:C6)</f>
-        <v>110</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(D2:D6)</f>
+        <v>110</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
         <v>122</v>
       </c>
     </row>
@@ -3535,91 +3786,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="36" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60" style="4" customWidth="1"/>
-    <col min="3" max="4" width="12" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="36" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="4">
-        <v>120</v>
-      </c>
-      <c r="D2" s="4">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="6">
-        <v>120</v>
-      </c>
-      <c r="D3" s="6">
-        <v>75</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="7">
-        <v>60</v>
-      </c>
-      <c r="D4" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <f>SUM(C2:C4)</f>
-        <v>300</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM(D2:D4)</f>
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>